--- a/Statystyki_2018/Template/okrc.xlsx
+++ b/Statystyki_2018/Template/okrc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B695D-645B-4D79-816D-E7E4A9A09BCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F39CB5D-A7A0-45FE-9D40-18A6EBB1E5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,14 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -40,13 +42,7 @@
     <t>Sąd Rejonowy</t>
   </si>
   <si>
-    <t>dla Krakowa-Nowej Huty</t>
-  </si>
-  <si>
     <t>Wydział:</t>
-  </si>
-  <si>
-    <t>I Cywilny</t>
   </si>
   <si>
     <t>za miesiąc:</t>
@@ -870,6 +866,93 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,118 +974,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1014,6 +989,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,11 +1130,6 @@
         <row r="2">
           <cell r="C2" t="str">
             <v>w Myślenicach</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>I Cywilny</v>
           </cell>
         </row>
       </sheetData>
@@ -1540,7 +1531,7 @@
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1553,423 +1544,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:34" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
     </row>
     <row r="3" spans="1:34" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
     </row>
     <row r="4" spans="1:34" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="32"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
     </row>
     <row r="5" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="G6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="H6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12" t="s">
+      <c r="O6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="28" t="s">
         <v>15</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="21" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="22" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="L7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="M7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="N7" s="42"/>
+      <c r="O7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="47"/>
-      <c r="T7" s="15" t="s">
+      <c r="X7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="17" t="s">
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="AB7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17" t="s">
+      <c r="AC7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" s="20" t="s">
+      <c r="AD7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" s="20" t="s">
+      <c r="AE7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="AD7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH7" s="21"/>
+      <c r="AG7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH7" s="28"/>
     </row>
     <row r="8" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="21"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="45"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="28"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="42">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="T6:AG6"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AE7:AE9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:AG4"/>
     <mergeCell ref="A2:A4"/>
@@ -1986,32 +1999,6 @@
     <mergeCell ref="Q7:Q9"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="T6:AG6"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2037,7 +2024,7 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2049,270 +2036,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
     </row>
     <row r="2" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="str">
-        <f>[1]C!C2:D2</f>
-        <v>w Myślenicach</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50">
         <f>IF([1]POMOCE!U2,0,"BŁĘDNA NAZWA SĄDU / WYDZIAŁU")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
     </row>
     <row r="3" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="str">
-        <f>[1]C!C3:D3</f>
-        <v>I Cywilny</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
     </row>
     <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="55"/>
+      <c r="A4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
     </row>
     <row r="5" spans="1:34" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
     </row>
     <row r="6" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="E6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="48" t="s">
-        <v>17</v>
+      <c r="F6" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="51" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="L7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:N6"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -2320,13 +2308,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:J5 O2:AH5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
